--- a/Testdata/TC_139.xlsx
+++ b/Testdata/TC_139.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HDUAAB+LCAAAAAAAAAPtW1tvG8cV/isLAgUcwNTukroSow0oUpJZi5Ii0padF2O4O5K2Wu6ye5HENxlFnKRNGqS2EyRO6rZBkqKoHQdIW9d22v8SmLT85L/QMzN7JZcS1xegDmQI9s65zZkzc875drxCbx60DWGP2I5umfM5eULKCcRULU03t+dznruVl6dzbypo8UAlxjq2cZu4ICyAlumUDhx9Prfjup2SKO7v70/sFycse1ssSJIsXqqvNNQd0sZ53XRcbKokF2ppJ2vlFFTR2nXiYg27mGvO52qN2kSF6GoVaHVs4m1iTyx4jm4Sx1k0Xd3ViUM1bYJdUqnWL/KFKYWJ6QkZiUP0SHLB0w2NyyUkOd2Xg2lJU28TpSDJs3lZzhfmmtJMqSCX5JmJ6ani24FiKIhWsOM2iL2nq4zQcHG7w9RluTAnzRRkeQaJqUJgKwqAgtYMbYPs6Q7RKsQwnEwREf0NLKsurDpbMCUkxnR9Q8/vwrKNOztN3TVIVvUlyyYqBOq55l4l+2u2H79mZwW4zR3ddrtV3M1s64JD7LUOjUY2VQVVLdMtG8R2L3RgU4kGew4MxbU9gsQRzEipqjsqPOumRzRlCxtOXCnBRJuWvet0sEpWIWFFamPfNCyswclydcfV1WjSIQZat60OWITJFyxDWwKrvnAKI7RcMyHEdNoFy9qNvEtjInYG2GmAPW1jNxAfoqPGjrW/ZhrdhtdyVFtvEa26EEin8hDNPF+74jmu1QYvIhLitBhF08R6XezCH8i3QSaqElVvY2PdgFA6ShFsJQio7LnWlu5WLMNrm07g2QAVbcK6muQgXGc4RmuwxSYNvWXWzECeBzuVlVTYsPbDOYcZLBQxctlRg00fZgwKV4EWbOIwh+0LXeWSbkA7iO9IjJo8G40dQtzUg8E5iFa+JdpglIXuqtduQZK1INP22KwOEiM+gtMKJx78UiRoGnn205SkEvsBP0I2WjS10XIBE8F0sbkUqMgDFARLMhYMbO4CdVN3d1bLwVJSOIgHYKT8MA9B+nYM3GXkMEhxGqqZquFphFeFmrnFTij1je/pSDYaIq1AoisIm91mtwNV2NFLLjzM56AvlxzXhs6fU1TLM127S8sHEn3Rk3Qcr2WyCbAxts6WTX7tAeDoLnmmWrG08WfTeHQumLo7voeWZ/OaOL4Kix4tj55TJbTQsMo/tr6aZU2OnUm8bZK2Zerq+NGGIFPvtedYiBMk1dgahKfX2PIGNHfe+2iqj61mA1qEbpdpmrLjWKrODqufHlpMXxyRMlWyhT0DkJoLfXY7LL2DZFR2dgdl4iR0wTaCAqhQHOwAEFa19oQKCIKCvQnValOCCPhzs4HEuDyFQSpZNLdXsLntAdAI68ogPSy/tEk2bWw6dDkhrhioxOlCKKhTHO8ovHiteewg8OJlAReJA3KoSdody8ZGHQKjL/nHzgdNgEfq2N3xR9DaDKIGQRYj1VAr6Vng+ElirEfxZdCE98vkAJEJ0bVwyB3JRDREV1mHtDQq2NBbNq+qQSdP48GGRQgxqL90cRnRYrAH8NoFzfc86VIsHg18OjuycsDgB5gWUqWxMTlbmJwrzgGwoWPEVrxsW44jVK02oWhPAEineaornFmurr8BbY8FxW88Y8jHJdFSUMvZdG+BT0lKUgAgxbYOrWJYMORECspbHlQfYhvdmCxf0Yqlgmjv1o+9a+88uXH78YNv+4cPe4ePnj16D3x89uh9viouhpq4ZRDmTXNhdlYqTsJBCkmIRk9kAJguktEuX2a4Nxwj/z2NDSqLtcryygIrGCExUOc9Q6SvgF3Li4YN7j6biO2ZGGw1F1GaQQHyxwlurAcp9JVsjySl4/xRijwWTx5+++ThnZHafsAiLCXPzc3lpeKJUAtebuW8XBgBtVYSRZ4KT+alqXyhEBMekEEbvMKHcappSlGW5mQZQF1YrLXw3KYJDbJ8S028LQ7ocVKF45/wCMTHAZOd+ibkRcjmeRAb8CD2//G7o+9uJqT86PqUpBVwjuEUOpkYDJjp1Y2m0Fi7sFFZFJqLDXpOIl5Mjhs/RtifPcyk+KEJM+2sAA0cGpaQq2P7rPBLzyRnhQbpnBXgJSgXy8PEkUuj8uleyPCgx1CWvA6vMzGFiJoiGRWcNI2UosN4LLZp1Sfipmj4RenOV2kK/lqqEYBVNuoLQssMjymjoQSHk2J8f4oPrz5+8N/HDx70733cu381YcGfJ7wLgGMPyRUfhlkAFdDvLwMUtNlg8dyVrsT6iU+k703rlm66jjJVYO9M/giBqkytsX9RrQ0tjhlm8QL6AAWdw87igevnubKKxCQB/Oxg6K5W9KoZEnhJj+L69Ms/9m/90P/k3tG7f+v99q+9Dz558vD20d0/8yTs37zX//CuX/QH+wLzhb7ActAnsEsRVaDJKdBeLfx0eF0wLVcAiCF4rED9dPhZzBh1lIGRyDJAuNCRpAtDonFlqifEXAl9SOiFKrzhV2hHK4YSfk+zOroaTfJ2npqi2ccYZ2rNvOcQwQL0BP18QDhSHlfPV+Eddn1GKsgFn8u9oUtoYScW+mXDamFDCBjsvmFAJKF1vEIky+ZbXllbKK9EItyJNVsjNj2G/AEFEJJ2mJoTjIKjFqMAF4Ce6hn0imhIbJgVWo5VMtG/a9kqa7QIpt9MJCRQxbNtDo5M/6a+4XUA/Ab3cqP57K4yhndXOTaNI+BoXKsm+TCOcaEvJtmUwPisNPksXqZqDr3W4fB1lYYmGgIvcb8J4fAv4znw2tNhS0RadxZt27JTi0/ECcTqgJyhoohRxEMZtqccZWvRXgWEoOC9NLQ9m0DbZ6qVN85ZkDTn6V8bxMW6ISzAC7hTAigNiLEk1HWtJJw7L6zo5q5QLgnSDMNDkjRXEooT09Iv0lD5y7F7DHqvTo2J3ocE09B7FdwbhdwBp/euftG/8xdetQGwP/3ms/79757e+mfvxt3e4YPee/efPfr88cN/9f/0iD7cv/P00x8YwP/cl7z+n/7vvy7DOFojDGLBOwX/Lwr+IaZTeQmg+uRJ4F+ao3sgTb9i8C9NzZ4M/n2hU/A/LvhniXpWyE0JVnT7/RxYP4ud0dC+mhnap2ocC+0HS9MYsL7/6ddjwvpz56tpmJ6RRwB6qGe9d37zgjheHo3j5SuxTjWM42VpevYUyZ8i+dcKycunSP51QfID5ef/FslPSfRGI4bkN9drDFpDGesKZRuqiUEAbC9ZFsDspYsl4SLZLgnLNiGmsE6wk4bas9s4BqFvTo+J0IcE0xD6JiG7IyF6//1/9z76mCPw/gfvQtkD0A6LAazOAPnDo2+u9m5e612/SjH5V7f5w9JF+Ovoxt+PPvqCkr/8w9H3107h+EuE47I0zl08vYjPy5Ov+i6+WBzjLp4LncLxceE4z0qhRSBfTdqxsSs04GzYGu5mB+XZrY2G5puZoXmqxrHQfKgmjYHNnx5+PyY2hxSapFcFU/My69NDKH1AYAReH20mO2wvjIbthSuxtpQC22dO799PUfvrhdoLPwPU7s/9s4ftA+XnlcB2MfpQJqyMVpUYxM38qXigXbf2nlsXNj+ras1ZMzQ/mNm+9QnDEhmIfy9PD0pWZ8q2DTCKflqb+QN3+l8GtWyrV4iqEVnDMtlqyRhPY1me2cJzGp5rzU5Nt+Bljxuln35RE23A2vTDqWyTAHhMqkcfuW1gczujNR5gpkg/BINI+V/LL+m2416ifdJ/4pTLIeUyx86X6Bfh/IGNLyszk5wAAmLcuphwM6goLv9dCstY0dt6xq/DpKDqJI3Avnc6HFxm3UHoeKvkAKBvzALU6tavoJvxzymzWONpBCU+1KefMDv69o6b1TFVVQstSS3kJ4tkOj+J8UweE3kL3n+KM9Pq5MxkcXqKfgDtG4d6ppP9jJOIwYZFv+Ok/A9mfcBEHDUAAA==</t>
+          <t>ljYAAB+LCAAAAAAAAAPtW1tvG8cV/isLAgVswNQub5JIjDbgRZJZk5Ii0padF2O5O5S2Wu6ye5HENxtFbm3SwLWdIHFStw1yQVE7LpC2ru20/yUwafnJf6FnZvZKLiWu7ABxIYOWds5tZs7MOeeb0RK9cdDTuD1sWqqhL6Uyc0KKw7psKKq+vZRy7G46M596Q0TLBzLWNiRT6mEbhDnQ0q3SgaUupXZsu1/i+f39/bn93JxhbvNZQcjwl5uNlryDe1Ja1S1b0mWc8rWU47VSIqoqvSa2JUWyJaa5lKq36nNVrMo1oDUlXdrG5lzFsVQdW9aybqu2ii2iaWLJxtVa8xKbmJidm5/LIH6CHkhWHFVTmFxEktFdOegWt9UeFrNCVkgLi+ms0BaKpUy2lC/MLeQLb3mKviBqSJbdwuaeKlNCy5Z6faouLML/YiabLyA+VghsBQ4Q0bqmbOI91cJKFWualcgjvLuAZdmGWSdzpoD4kK5r6ORDWDWl/k5btTWcVH3FMLEMjjpR32t4f910/dfuN4Db3lFNe1CTBoltXbSwud4n3kimKqKaodtlDZv2xT4sKlZgzYEh2qaDET+FGSjVVEuGZ1V3sCJ2Jc0KK0WYaMswd62+JOM1CFie2NjXNUNSYGfZqmWrctDpBANtmEYfLELnFUNTVsCqKxzD8C3XdXAx6bZiGLvB6OKYiO4BuhtgTXuS7YlP0FFrx9hf17VBy+lYsql2sFKreNKxPEQiz9WuOpZt9GAUAQkxWoiiKHyzyQ/gH8TbOBPVsKz2JG1DA1daYg5sRQio7NhGV7Wrhub0dMsb2RgVbcG82vjAn6ffRuuwxDpxvaHXdU+eOTuWFVXYNPb9PicZ1BUhctmSvUWfZIwL14DmLeIkh64LmeWKqkE5CK9IiBrdG60djO3YjcE4iGS+FVJgxMpgzel1IMg6EGl7tFcL8QEfwW6FHQ/jEgUoGmn6aQtCiX5gHD4bLevKdDmPiaC7UF/iAuLHKAimpFU0Sd8F6pZq76yVvanEcBBzwFT5SR6C8O1r0oCSfSeFaaiuy5qjYJYV6nqX7lAyNramU9logtSAQBeRpA/agz5kYUst2fCwlIK6XLJsEyp/SpQNR7fNAUkfiHdFj9OxnI5OO5C0mXW6Jv61A4BjsOLoctVQZu9NYd65qKv27CM0HJPlxNlVqPdIenSsGiaJhmb+mfXlJHOyzETiPR33DF2VZ/c2OJmMXjnBRCwvqGbWwCy8ZpbXoLiz2kdCfWY1E9AiVLtE3ZQty5BVulnd8FBC+vyUkKnhruRogNRsqLPbfuodJ6OytTsuEyahi6bmJUCR4GALgLCs9OZkQBAE7M3JRo8QeMCfWy3Eh+UJDJLxsr7dkPRtB4CGn1fG6X76JUWybUq6Rabj44qxTBwvhLw8xfCOyJLXukM3AkteBnARPyaH2rjXN0xJa4Jj1BV327mgCfBIU7J33BaUNg3LnpP5QNXXio7MG/hxYrRGsWmQgHfT5BiRCpG5MMgdyAQ0RGbZhLDUqpKmdkyWVb1KHseDBQsQopd/yeQSokVvDeDYBcX3Ah4QLB40XDrdshmPwTYwSaRiazO/mM0Xc0UANqSN6IxXTcOyuJrRwwTtcQDpFEe2uTOrtY2zUPaoU9zCM4N8WBKteLmcdvcmjClKiQoApNhWoVRMCvqcQEF804Hsg01tEJJlM2oYMogO7/wwfOftZ7fuPn30zeja4+G1Jy+evAdjfPHkfTYrJobaUkfDdDTtyuKikMvDRvJJiHiPpwCYTJLSrlyhuNdvI/ecRhvV5Xp1tVGhCcMneuqsZvDkCDgwnKDZYsOnHdE1472lZiJi20tAbjvCDdUgkRzJ9nBUOsyfpsh88ezxN88e35uq7ToswFKZYrGYFnLHQq2skMmkM9kpUKsRSfJEOJ8WCulsNiQ8JoM2WYb3/VRXxFwGzs4ZAHV+slb8fRsnNM5yLbWlbX5Mj5GqDP/4WyDc9ph017chLnw2i4NQgzlx9I/fHX53OyLletelRK3A4ChOIZ3xXoOaXttsc631i5vVZa693CL7JOCF5JjxI4Td3v1ICm8aP9LOcVDAoWBxqaZknuN+6ej4HNfC/XMcHIJSoTiMbLk4KuvupQyPjxjSktNneSakEFBjJIOEE6cRk3Qoj/o2LvsE3BgNNynd+zJOwZ1LLQCw4mazwnV0f5tSGopwGCnEd7v48PrTR/99+ujR6MGN4cPrEQtuP/5dAGx7CK5w048CyIBufRmjoK0W9eeucDVUT1wiOTdtGKpuW2IhS89MbguBaoZYo79RvQcljhqm/gL6GAWdl6zlA9uNc3EN8VECjLMvQXU1gqOmT2ApPfDr8y/+OLrz/ejjB4fv/nX422+HH3z87PHdw/t/ZkE4uv1g9OF9N+mP1wU6FnKAZaCPo5ciMkeCkyO1mvvx2k1ON2wOIAbn0AT147VPQ8bIQCkYCSwDhPMHEh3ChGhYmehxoaH4Y4jo+Sqs4FdJRcv5Em5NM/qqHHTyVpqYItFHGWfq7bRjYc4A9AT1fEw4UJ5Vz1VhFXZjQchmsi6XjYZMoSNZIdevakZH0jiPQe8bxkQiWkcrBLK0v9XGeqXcCETYINZNBZtkG7IHVLc8EOltrxAFuADuZEcj10ITYpMs5D2Fshfv3q90ywpJfPG3EREJVHVMkwEi3b2dbzl9ALzeXdx0Pr2fDGHcNYZHw6g3aNdrUT60Q1yohVE2IVA+TUcui6WmukWuchhkXSOuCZrAi9xpgjvcC3gGtvZUWAae5Jpl0zTM2IQTcDyxJqBlyCJ84HFfhiddMmStBGvlEbwk98oQ9mIEYZ+pVc+eNyBQLpAfrfImd6a6A6XlLLeJbUnVuAocwK0SQGlAjCWuqSol7vwFrqHqu1y5xAkLFA8JQrHE5ebmhV/EofJX38cRSL5WmBHJTwjGIfkaDG8aigfMPrz++ejeX1gGB/D+/OtPRw+/e37nn8Nb94fXHg3fe/jiyWdPH/9r9Kcn5OHhveeffE/B/meu5M3/jH7/VRnawRyhEXLk6UHgZQ8C4NNCWgDYnj/uICAUyRoI87MdBIppODgIxeQHAaGwePxBwBU6PQjMehCggXqOSxU4I7gJPwHuT2JnOsyvJYb5sRpHwvzx1DQDxB998tWMEP/8hVocvqfkKeAe8tnw7d+8JKbPTMf0mauhCjaJ6TPC/OIpqj9F9a8Vqs+covqfM6ofSzk/W1RfEMiNRgjVb23UKZyG1DXgyiZkEA0DwF4xDIDWK5dK3CW8XeJWTYx1bgNLVhxqT27jCFS+NT8jKp8QjEPlWxjvToXlo/f/PfzoBkPdow/ehVQHQB0mA/icgvDHh19fH95+Z3jzOsHhX95lDyuX4Mfhrb8dfvQ5IX/xh8O/v3MKwV8hBM8Is9zFk4v4dCb/U9/F53Iz3MUzoVMIPisEZ1HJdTDEq06qtGRzLdgbpiINkgPx5Namw/GtxHA8VuNIOD6Rk2a5cr/x7Yx4HEIoT64HCksZWqcnkPmYwBSMPt1McqienQ7Vs1dDZSkGqi+c3r+fIvXXC6lnX1Ok7vb9fw/Vx1LOTwLV+eDlGD8bGjWsYTvx6+GedtPYO7EuLH5S1bq1rimuM5O93+O7JTAQfkeebJSkgymbJkAn8jpt4pfayZ8G6slmL0o5BeOO1MEZIYcL84td3JXnOxlJ6MKnoAB4pEbJ617ERA/wNXlZKlknABij6sGLbZuSvp3QGnMwVSQvf4Gn3Js/mtn9NlpRTcu+TEql+8QoV3zKFQafL5OXwtkDbV8RF/KMAAJ8uDM+Mmovwdjs6xSG1lB7asIXxAQvCUWNwDbo9xm+TLqgUPTW8AGg35AFSNedX0FBY29UJrHGogqyvK/v2Wo5ncTmeE95A/j0D1kn0l5WAJmdXJt+OUHVXmIAFHqd1ERdt9TtHTvpumaLxRyex9l0tivL6Tw00lCOO2lF6hYBtnZzCsnxvnGoDireT9gJqSmq5Uhacj1+7Ntl4v8Am6/0qZY2AAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -423,7 +423,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -652,7 +652,7 @@
         <v>41781</v>
       </c>
       <c r="C14" s="5">
-        <v>41781</v>
+        <v>43778</v>
       </c>
       <c r="D14" s="5">
         <v>41781</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>0.6244393038249119</v>
+        <v>0.624439303824912</v>
       </c>
     </row>
     <row r="21">
@@ -1312,4 +1312,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>75</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>75</EndRow>
+          <EndCol>3</EndCol>
+          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
+          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
+          <SeriesId>310905801</SeriesId>
+          <Code>SR4824938</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>75</EndRow>
+          <EndCol>4</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18CA3D11-27CC-4629-B695-72EAA8E22DF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_139.xlsx
+++ b/Testdata/TC_139.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ljYAAB+LCAAAAAAAAAPtW1tvG8cV/isLAgVswNQub5JIjDbgRZJZk5Ii0padF2O5O5S2Wu6ye5HENxtFbm3SwLWdIHFStw1yQVE7LpC2ru20/yUwafnJf6FnZvZKLiWu7ABxIYOWds5tZs7MOeeb0RK9cdDTuD1sWqqhL6Uyc0KKw7psKKq+vZRy7G46M596Q0TLBzLWNiRT6mEbhDnQ0q3SgaUupXZsu1/i+f39/bn93JxhbvNZQcjwl5uNlryDe1Ja1S1b0mWc8rWU47VSIqoqvSa2JUWyJaa5lKq36nNVrMo1oDUlXdrG5lzFsVQdW9aybqu2ii2iaWLJxtVa8xKbmJidm5/LIH6CHkhWHFVTmFxEktFdOegWt9UeFrNCVkgLi+ms0BaKpUy2lC/MLeQLb3mKviBqSJbdwuaeKlNCy5Z6faouLML/YiabLyA+VghsBQ4Q0bqmbOI91cJKFWualcgjvLuAZdmGWSdzpoD4kK5r6ORDWDWl/k5btTWcVH3FMLEMjjpR32t4f910/dfuN4Db3lFNe1CTBoltXbSwud4n3kimKqKaodtlDZv2xT4sKlZgzYEh2qaDET+FGSjVVEuGZ1V3sCJ2Jc0KK0WYaMswd62+JOM1CFie2NjXNUNSYGfZqmWrctDpBANtmEYfLELnFUNTVsCqKxzD8C3XdXAx6bZiGLvB6OKYiO4BuhtgTXuS7YlP0FFrx9hf17VBy+lYsql2sFKreNKxPEQiz9WuOpZt9GAUAQkxWoiiKHyzyQ/gH8TbOBPVsKz2JG1DA1daYg5sRQio7NhGV7Wrhub0dMsb2RgVbcG82vjAn6ffRuuwxDpxvaHXdU+eOTuWFVXYNPb9PicZ1BUhctmSvUWfZIwL14DmLeIkh64LmeWKqkE5CK9IiBrdG60djO3YjcE4iGS+FVJgxMpgzel1IMg6EGl7tFcL8QEfwW6FHQ/jEgUoGmn6aQtCiX5gHD4bLevKdDmPiaC7UF/iAuLHKAimpFU0Sd8F6pZq76yVvanEcBBzwFT5SR6C8O1r0oCSfSeFaaiuy5qjYJYV6nqX7lAyNramU9logtSAQBeRpA/agz5kYUst2fCwlIK6XLJsEyp/SpQNR7fNAUkfiHdFj9OxnI5OO5C0mXW6Jv61A4BjsOLoctVQZu9NYd65qKv27CM0HJPlxNlVqPdIenSsGiaJhmb+mfXlJHOyzETiPR33DF2VZ/c2OJmMXjnBRCwvqGbWwCy8ZpbXoLiz2kdCfWY1E9AiVLtE3ZQty5BVulnd8FBC+vyUkKnhruRogNRsqLPbfuodJ6OytTsuEyahi6bmJUCR4GALgLCs9OZkQBAE7M3JRo8QeMCfWy3Eh+UJDJLxsr7dkPRtB4CGn1fG6X76JUWybUq6Rabj44qxTBwvhLw8xfCOyJLXukM3AkteBnARPyaH2rjXN0xJa4Jj1BV327mgCfBIU7J33BaUNg3LnpP5QNXXio7MG/hxYrRGsWmQgHfT5BiRCpG5MMgdyAQ0RGbZhLDUqpKmdkyWVb1KHseDBQsQopd/yeQSokVvDeDYBcX3Ah4QLB40XDrdshmPwTYwSaRiazO/mM0Xc0UANqSN6IxXTcOyuJrRwwTtcQDpFEe2uTOrtY2zUPaoU9zCM4N8WBKteLmcdvcmjClKiQoApNhWoVRMCvqcQEF804Hsg01tEJJlM2oYMogO7/wwfOftZ7fuPn30zeja4+G1Jy+evAdjfPHkfTYrJobaUkfDdDTtyuKikMvDRvJJiHiPpwCYTJLSrlyhuNdvI/ecRhvV5Xp1tVGhCcMneuqsZvDkCDgwnKDZYsOnHdE1472lZiJi20tAbjvCDdUgkRzJ9nBUOsyfpsh88ezxN88e35uq7ToswFKZYrGYFnLHQq2skMmkM9kpUKsRSfJEOJ8WCulsNiQ8JoM2WYb3/VRXxFwGzs4ZAHV+slb8fRsnNM5yLbWlbX5Mj5GqDP/4WyDc9ph017chLnw2i4NQgzlx9I/fHX53OyLletelRK3A4ChOIZ3xXoOaXttsc631i5vVZa693CL7JOCF5JjxI4Td3v1ICm8aP9LOcVDAoWBxqaZknuN+6ej4HNfC/XMcHIJSoTiMbLk4KuvupQyPjxjSktNneSakEFBjJIOEE6cRk3Qoj/o2LvsE3BgNNynd+zJOwZ1LLQCw4mazwnV0f5tSGopwGCnEd7v48PrTR/99+ujR6MGN4cPrEQtuP/5dAGx7CK5w048CyIBufRmjoK0W9eeucDVUT1wiOTdtGKpuW2IhS89MbguBaoZYo79RvQcljhqm/gL6GAWdl6zlA9uNc3EN8VECjLMvQXU1gqOmT2ApPfDr8y/+OLrz/ejjB4fv/nX422+HH3z87PHdw/t/ZkE4uv1g9OF9N+mP1wU6FnKAZaCPo5ciMkeCkyO1mvvx2k1ON2wOIAbn0AT147VPQ8bIQCkYCSwDhPMHEh3ChGhYmehxoaH4Y4jo+Sqs4FdJRcv5Em5NM/qqHHTyVpqYItFHGWfq7bRjYc4A9AT1fEw4UJ5Vz1VhFXZjQchmsi6XjYZMoSNZIdevakZH0jiPQe8bxkQiWkcrBLK0v9XGeqXcCETYINZNBZtkG7IHVLc8EOltrxAFuADuZEcj10ITYpMs5D2Fshfv3q90ywpJfPG3EREJVHVMkwEi3b2dbzl9ALzeXdx0Pr2fDGHcNYZHw6g3aNdrUT60Q1yohVE2IVA+TUcui6WmukWuchhkXSOuCZrAi9xpgjvcC3gGtvZUWAae5Jpl0zTM2IQTcDyxJqBlyCJ84HFfhiddMmStBGvlEbwk98oQ9mIEYZ+pVc+eNyBQLpAfrfImd6a6A6XlLLeJbUnVuAocwK0SQGlAjCWuqSol7vwFrqHqu1y5xAkLFA8JQrHE5ebmhV/EofJX38cRSL5WmBHJTwjGIfkaDG8aigfMPrz++ejeX1gGB/D+/OtPRw+/e37nn8Nb94fXHg3fe/jiyWdPH/9r9Kcn5OHhveeffE/B/meu5M3/jH7/VRnawRyhEXLk6UHgZQ8C4NNCWgDYnj/uICAUyRoI87MdBIppODgIxeQHAaGwePxBwBU6PQjMehCggXqOSxU4I7gJPwHuT2JnOsyvJYb5sRpHwvzx1DQDxB998tWMEP/8hVocvqfkKeAe8tnw7d+8JKbPTMf0mauhCjaJ6TPC/OIpqj9F9a8Vqs+covqfM6ofSzk/W1RfEMiNRgjVb23UKZyG1DXgyiZkEA0DwF4xDIDWK5dK3CW8XeJWTYx1bgNLVhxqT27jCFS+NT8jKp8QjEPlWxjvToXlo/f/PfzoBkPdow/ehVQHQB0mA/icgvDHh19fH95+Z3jzOsHhX95lDyuX4Mfhrb8dfvQ5IX/xh8O/v3MKwV8hBM8Is9zFk4v4dCb/U9/F53Iz3MUzoVMIPisEZ1HJdTDEq06qtGRzLdgbpiINkgPx5Namw/GtxHA8VuNIOD6Rk2a5cr/x7Yx4HEIoT64HCksZWqcnkPmYwBSMPt1McqienQ7Vs1dDZSkGqi+c3r+fIvXXC6lnX1Ok7vb9fw/Vx1LOTwLV+eDlGD8bGjWsYTvx6+GedtPYO7EuLH5S1bq1rimuM5O93+O7JTAQfkeebJSkgymbJkAn8jpt4pfayZ8G6slmL0o5BeOO1MEZIYcL84td3JXnOxlJ6MKnoAB4pEbJ617ERA/wNXlZKlknABij6sGLbZuSvp3QGnMwVSQvf4Gn3Js/mtn9NlpRTcu+TEql+8QoV3zKFQafL5OXwtkDbV8RF/KMAAJ8uDM+Mmovwdjs6xSG1lB7asIXxAQvCUWNwDbo9xm+TLqgUPTW8AGg35AFSNedX0FBY29UJrHGogqyvK/v2Wo5ncTmeE95A/j0D1kn0l5WAJmdXJt+OUHVXmIAFHqd1ERdt9TtHTvpumaLxRyex9l0tivL6Tw00lCOO2lF6hYBtnZzCsnxvnGoDireT9gJqSmq5Uhacj1+7Ntl4v8Am6/0qZY2AAA=</t>
+          <t>HDUAAB+LCAAAAAAAAAPtW1tvG8cV/isLAgUcwNTukroSow0oUpJZi5Ii0padF2O4O5K2Wu6ye5HENxlFnKRNGqS2EyRO6rZBkqKoHQdIW9d22v8SmLT85L/QMzN7JZcS1xegDmQI9s65zZkzc875drxCbx60DWGP2I5umfM5eULKCcRULU03t+dznruVl6dzbypo8UAlxjq2cZu4ICyAlumUDhx9Prfjup2SKO7v70/sFycse1ssSJIsXqqvNNQd0sZ53XRcbKokF2ppJ2vlFFTR2nXiYg27mGvO52qN2kSF6GoVaHVs4m1iTyx4jm4Sx1k0Xd3ViUM1bYJdUqnWL/KFKYWJ6QkZiUP0SHLB0w2NyyUkOd2Xg2lJU28TpSDJs3lZzhfmmtJMqSCX5JmJ6ani24FiKIhWsOM2iL2nq4zQcHG7w9RluTAnzRRkeQaJqUJgKwqAgtYMbYPs6Q7RKsQwnEwREf0NLKsurDpbMCUkxnR9Q8/vwrKNOztN3TVIVvUlyyYqBOq55l4l+2u2H79mZwW4zR3ddrtV3M1s64JD7LUOjUY2VQVVLdMtG8R2L3RgU4kGew4MxbU9gsQRzEipqjsqPOumRzRlCxtOXCnBRJuWvet0sEpWIWFFamPfNCyswclydcfV1WjSIQZat60OWITJFyxDWwKrvnAKI7RcMyHEdNoFy9qNvEtjInYG2GmAPW1jNxAfoqPGjrW/ZhrdhtdyVFtvEa26EEin8hDNPF+74jmu1QYvIhLitBhF08R6XezCH8i3QSaqElVvY2PdgFA6ShFsJQio7LnWlu5WLMNrm07g2QAVbcK6muQgXGc4RmuwxSYNvWXWzECeBzuVlVTYsPbDOYcZLBQxctlRg00fZgwKV4EWbOIwh+0LXeWSbkA7iO9IjJo8G40dQtzUg8E5iFa+JdpglIXuqtduQZK1INP22KwOEiM+gtMKJx78UiRoGnn205SkEvsBP0I2WjS10XIBE8F0sbkUqMgDFARLMhYMbO4CdVN3d1bLwVJSOIgHYKT8MA9B+nYM3GXkMEhxGqqZquFphFeFmrnFTij1je/pSDYaIq1AoisIm91mtwNV2NFLLjzM56AvlxzXhs6fU1TLM127S8sHEn3Rk3Qcr2WyCbAxts6WTX7tAeDoLnmmWrG08WfTeHQumLo7voeWZ/OaOL4Kix4tj55TJbTQsMo/tr6aZU2OnUm8bZK2Zerq+NGGIFPvtedYiBMk1dgahKfX2PIGNHfe+2iqj61mA1qEbpdpmrLjWKrODqufHlpMXxyRMlWyhT0DkJoLfXY7LL2DZFR2dgdl4iR0wTaCAqhQHOwAEFa19oQKCIKCvQnValOCCPhzs4HEuDyFQSpZNLdXsLntAdAI68ogPSy/tEk2bWw6dDkhrhioxOlCKKhTHO8ovHiteewg8OJlAReJA3KoSdody8ZGHQKjL/nHzgdNgEfq2N3xR9DaDKIGQRYj1VAr6Vng+ElirEfxZdCE98vkAJEJ0bVwyB3JRDREV1mHtDQq2NBbNq+qQSdP48GGRQgxqL90cRnRYrAH8NoFzfc86VIsHg18OjuycsDgB5gWUqWxMTlbmJwrzgGwoWPEVrxsW44jVK02oWhPAEineaornFmurr8BbY8FxW88Y8jHJdFSUMvZdG+BT0lKUgAgxbYOrWJYMORECspbHlQfYhvdmCxf0Yqlgmjv1o+9a+88uXH78YNv+4cPe4ePnj16D3x89uh9viouhpq4ZRDmTXNhdlYqTsJBCkmIRk9kAJguktEuX2a4Nxwj/z2NDSqLtcryygIrGCExUOc9Q6SvgF3Li4YN7j6biO2ZGGw1F1GaQQHyxwlurAcp9JVsjySl4/xRijwWTx5+++ThnZHafsAiLCXPzc3lpeKJUAtebuW8XBgBtVYSRZ4KT+alqXyhEBMekEEbvMKHcappSlGW5mQZQF1YrLXw3KYJDbJ8S028LQ7ocVKF45/wCMTHAZOd+ibkRcjmeRAb8CD2//G7o+9uJqT86PqUpBVwjuEUOpkYDJjp1Y2m0Fi7sFFZFJqLDXpOIl5Mjhs/RtifPcyk+KEJM+2sAA0cGpaQq2P7rPBLzyRnhQbpnBXgJSgXy8PEkUuj8uleyPCgx1CWvA6vMzGFiJoiGRWcNI2UosN4LLZp1Sfipmj4RenOV2kK/lqqEYBVNuoLQssMjymjoQSHk2J8f4oPrz5+8N/HDx70733cu381YcGfJ7wLgGMPyRUfhlkAFdDvLwMUtNlg8dyVrsT6iU+k703rlm66jjJVYO9M/giBqkytsX9RrQ0tjhlm8QL6AAWdw87igevnubKKxCQB/Oxg6K5W9KoZEnhJj+L69Ms/9m/90P/k3tG7f+v99q+9Dz558vD20d0/8yTs37zX//CuX/QH+wLzhb7ActAnsEsRVaDJKdBeLfx0eF0wLVcAiCF4rED9dPhZzBh1lIGRyDJAuNCRpAtDonFlqifEXAl9SOiFKrzhV2hHK4YSfk+zOroaTfJ2npqi2ccYZ2rNvOcQwQL0BP18QDhSHlfPV+Eddn1GKsgFn8u9oUtoYScW+mXDamFDCBjsvmFAJKF1vEIky+ZbXllbKK9EItyJNVsjNj2G/AEFEJJ2mJoTjIKjFqMAF4Ce6hn0imhIbJgVWo5VMtG/a9kqa7QIpt9MJCRQxbNtDo5M/6a+4XUA/Ab3cqP57K4yhndXOTaNI+BoXKsm+TCOcaEvJtmUwPisNPksXqZqDr3W4fB1lYYmGgIvcb8J4fAv4znw2tNhS0RadxZt27JTi0/ECcTqgJyhoohRxEMZtqccZWvRXgWEoOC9NLQ9m0DbZ6qVN85ZkDTn6V8bxMW6ISzAC7hTAigNiLEk1HWtJJw7L6zo5q5QLgnSDMNDkjRXEooT09Iv0lD5y7F7DHqvTo2J3ocE09B7FdwbhdwBp/euftG/8xdetQGwP/3ms/79757e+mfvxt3e4YPee/efPfr88cN/9f/0iD7cv/P00x8YwP/cl7z+n/7vvy7DOFojDGLBOwX/Lwr+IaZTeQmg+uRJ4F+ao3sgTb9i8C9NzZ4M/n2hU/A/LvhniXpWyE0JVnT7/RxYP4ud0dC+mhnap2ocC+0HS9MYsL7/6ddjwvpz56tpmJ6RRwB6qGe9d37zgjheHo3j5SuxTjWM42VpevYUyZ8i+dcKycunSP51QfID5ef/FslPSfRGI4bkN9drDFpDGesKZRuqiUEAbC9ZFsDspYsl4SLZLgnLNiGmsE6wk4bas9s4BqFvTo+J0IcE0xD6JiG7IyF6//1/9z76mCPw/gfvQtkD0A6LAazOAPnDo2+u9m5e612/SjH5V7f5w9JF+Ovoxt+PPvqCkr/8w9H3107h+EuE47I0zl08vYjPy5Ov+i6+WBzjLp4LncLxceE4z0qhRSBfTdqxsSs04GzYGu5mB+XZrY2G5puZoXmqxrHQfKgmjYHNnx5+PyY2hxSapFcFU/My69NDKH1AYAReH20mO2wvjIbthSuxtpQC22dO799PUfvrhdoLPwPU7s/9s4ftA+XnlcB2MfpQJqyMVpUYxM38qXigXbf2nlsXNj+ras1ZMzQ/mNm+9QnDEhmIfy9PD0pWZ8q2DTCKflqb+QN3+l8GtWyrV4iqEVnDMtlqyRhPY1me2cJzGp5rzU5Nt+Bljxuln35RE23A2vTDqWyTAHhMqkcfuW1gczujNR5gpkg/BINI+V/LL+m2416ifdJ/4pTLIeUyx86X6Bfh/IGNLyszk5wAAmLcuphwM6goLv9dCstY0dt6xq/DpKDqJI3Avnc6HFxm3UHoeKvkAKBvzALU6tavoJvxzymzWONpBCU+1KefMDv69o6b1TFVVQstSS3kJ4tkOj+J8UweE3kL3n+KM9Pq5MxkcXqKfgDtG4d6ppP9jJOIwYZFv+Ok/A9mfcBEHDUAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -423,7 +423,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -652,7 +652,7 @@
         <v>41781</v>
       </c>
       <c r="C14" s="5">
-        <v>43778</v>
+        <v>41781</v>
       </c>
       <c r="D14" s="5">
         <v>41781</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>0.624439303824912</v>
+        <v>0.6244393038249119</v>
       </c>
     </row>
     <row r="21">
@@ -1312,59 +1312,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>75</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>75</EndRow>
-          <EndCol>3</EndCol>
-          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
-          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
-          <SeriesId>310905801</SeriesId>
-          <Code>SR4824938</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>75</EndRow>
-          <EndCol>4</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18CA3D11-27CC-4629-B695-72EAA8E22DF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>